--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -266,7 +266,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайчики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девочки</t>
@@ -266,7 +269,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,10 +345,16 @@
       <c r="C5" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
@@ -353,7 +362,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
@@ -361,7 +370,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -369,7 +378,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -377,7 +386,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
@@ -385,7 +394,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
@@ -393,7 +402,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
@@ -401,7 +410,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -409,7 +418,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -417,7 +426,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -425,7 +434,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -433,7 +442,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
@@ -441,7 +450,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -449,7 +458,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -457,7 +466,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2</v>
@@ -465,7 +474,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -473,7 +482,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
@@ -481,7 +490,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -489,7 +498,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -497,7 +506,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -505,7 +514,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -513,7 +522,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -521,7 +530,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -529,7 +538,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3</v>
@@ -537,7 +546,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -545,7 +554,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
@@ -553,7 +562,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайчики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девочки</t>
@@ -269,15 +266,15 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="12.63"/>
   </cols>
@@ -337,6 +334,12 @@
       <c r="C4" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -345,8 +348,9 @@
       <c r="C5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
+      <c r="E5" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A5,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.encode('utf-8').tif</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -354,23 +358,34 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="E6" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A6,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки.encode('utf-8').tif</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="E7" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A7,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Ежик праздник.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -378,7 +393,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -386,15 +401,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E10" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A10,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Фея.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
@@ -402,7 +421,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
@@ -410,7 +429,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -418,15 +437,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E14" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A14,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Единорог.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -434,7 +457,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -442,31 +465,43 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E17" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A17,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Набор.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E18" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A18,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Бабочки.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E19" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A19,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в ванной.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2</v>
@@ -474,71 +509,103 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E21" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A21,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил футбол.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E22" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A22,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Собачки.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E23" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A23,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в кружке.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E24" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A24,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка моряк.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E25" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A25,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единороги набор.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E26" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A26,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка с сердечками.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E27" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A27,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E28" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A28,".encode('utf-8').tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка пилот.encode('utf-8').tif</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3</v>
@@ -546,7 +613,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -554,7 +621,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
@@ -562,7 +629,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -58,12 +58,21 @@
     <t xml:space="preserve">Термонаклейка Зайчики</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Девочки</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Ежик праздник</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Ежик праздник.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Щенячий патруль</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t xml:space="preserve">Термонаклейка Фея</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Фея.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Дисней мальчики</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t xml:space="preserve">Термонаклейка Минни Маус Единорог</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Единорог.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Транспорт</t>
   </si>
   <si>
@@ -94,37 +109,70 @@
     <t xml:space="preserve">Термонаклейка Минни Маус Набор</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Набор.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Бабочки</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Бабочки.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в ванной.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Крокодил футбол</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил футбол.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Собачки</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Собачки.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Котята. Кот в кружке</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в кружке.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Мишка моряк</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка моряк.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Единороги набор</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единороги набор.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Мишка с сердечками</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка с сердечками.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Динозавры</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Мишка пилот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка пилот.encode('utf-8').tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Леди Баг</t>
@@ -263,10 +311,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,44 +396,56 @@
       <c r="C5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="str">
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A5,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.encode('utf-8').tif</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="0" t="str">
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A6,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки.encode('utf-8').tif</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E7" s="0" t="str">
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A7,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Ежик праздник.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -393,7 +453,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -401,19 +461,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="0" t="str">
+      <c r="E10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A10,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Фея.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
@@ -421,7 +487,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
@@ -429,7 +495,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -437,19 +503,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="0" t="str">
+      <c r="E14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A14,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Единорог.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -457,7 +526,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -465,43 +534,61 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="0" t="str">
+      <c r="E17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A17,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Набор.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="0" t="str">
+      <c r="E18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A18,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Бабочки.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="0" t="str">
+      <c r="E19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A19,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в ванной.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2</v>
@@ -509,103 +596,151 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="0" t="str">
+      <c r="E21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A21,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил футбол.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="0" t="str">
+      <c r="E22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A22,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Собачки.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="str">
+      <c r="E23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A23,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в кружке.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="0" t="str">
+      <c r="E24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A24,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка моряк.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="0" t="str">
+      <c r="E25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A25,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единороги набор.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="0" t="str">
+      <c r="E26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A26,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка с сердечками.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="0" t="str">
+      <c r="E27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A27,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="0" t="str">
+      <c r="E28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A28,".encode('utf-8').tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка пилот.encode('utf-8').tif</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3</v>
@@ -613,7 +748,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -621,7 +756,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
@@ -629,7 +764,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rotate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раскладка в ширину</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Единорог и балерина</t>
@@ -311,10 +314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,10 +327,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -346,428 +351,556 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G3" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A5,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.encode('utf-8').tif</v>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A6,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки.encode('utf-8').tif</v>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A7,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Ежик праздник.encode('utf-8').tif</v>
+      <c r="G7" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A10,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Фея.encode('utf-8').tif</v>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A14,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Единорог.encode('utf-8').tif</v>
+        <v>26</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A17,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Набор.encode('utf-8').tif</v>
+      <c r="G17" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A18,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Бабочки.encode('utf-8').tif</v>
+      <c r="G18" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A19,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в ванной.encode('utf-8').tif</v>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A21,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил футбол.encode('utf-8').tif</v>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A22,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Собачки.encode('utf-8').tif</v>
+      <c r="G22" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A23,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в кружке.encode('utf-8').tif</v>
+      <c r="G23" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A24,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка моряк.encode('utf-8').tif</v>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D25" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A25,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единороги набор.encode('utf-8').tif</v>
+      <c r="G25" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A26,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка с сердечками.encode('utf-8').tif</v>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A27,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры.encode('utf-8').tif</v>
+      <c r="G27" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A28,".encode('utf-8').tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка пилот.encode('utf-8').tif</v>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,6 +950,9 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="C44" s="2"/>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -317,7 +317,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -317,7 +317,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,14 +425,14 @@
       <c r="D5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,14 +445,14 @@
       <c r="D6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,14 +465,14 @@
       <c r="D7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,14 +513,14 @@
       <c r="D10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,11 +575,11 @@
       <c r="D14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,14 +623,14 @@
       <c r="D17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,14 +643,14 @@
       <c r="D18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,14 +663,14 @@
       <c r="D19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,14 +697,14 @@
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,14 +717,14 @@
       <c r="D22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,14 +737,14 @@
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,14 +757,14 @@
       <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,14 +777,14 @@
       <c r="D25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,14 +797,14 @@
       <c r="D26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,14 +817,14 @@
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,14 +837,14 @@
       <c r="D28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Термобирки Котята</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\FINAL\Термобирки Котята.encode('utf-8').tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайчики</t>
@@ -317,7 +320,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5:H28"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,8 +408,8 @@
       <c r="D4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -417,7 +420,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>7</v>
@@ -432,12 +435,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
@@ -452,12 +455,12 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
@@ -472,12 +475,12 @@
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -491,7 +494,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -505,7 +508,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
@@ -520,12 +523,12 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
@@ -539,7 +542,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
@@ -553,7 +556,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -567,7 +570,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -579,12 +582,12 @@
         <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -598,7 +601,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -615,7 +618,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
@@ -630,12 +633,12 @@
         <v>2</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -650,12 +653,12 @@
         <v>2</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -670,12 +673,12 @@
         <v>2</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2</v>
@@ -689,7 +692,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -704,12 +707,12 @@
         <v>2</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
@@ -724,12 +727,12 @@
         <v>2</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -744,12 +747,12 @@
         <v>2</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -764,12 +767,12 @@
         <v>2</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -784,12 +787,12 @@
         <v>2</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -804,12 +807,12 @@
         <v>2</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -824,12 +827,12 @@
         <v>2</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -844,12 +847,12 @@
         <v>2</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3</v>
@@ -863,7 +866,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -877,7 +880,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
@@ -891,7 +894,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">ВБ СПРОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">путь к печати</t>
   </si>
   <si>
     <t xml:space="preserve">Rotate</t>
@@ -320,7 +317,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,28 +345,25 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -380,16 +374,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -400,16 +394,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -420,7 +414,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>7</v>
@@ -435,12 +429,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
@@ -455,12 +449,12 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
@@ -475,12 +469,12 @@
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -494,7 +488,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -508,7 +502,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
@@ -523,12 +517,12 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
@@ -542,7 +536,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
@@ -556,7 +550,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -570,7 +564,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -582,12 +576,12 @@
         <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -601,7 +595,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -618,7 +612,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
@@ -633,12 +627,12 @@
         <v>2</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -653,32 +647,32 @@
         <v>2</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2</v>
@@ -692,127 +686,127 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -827,32 +821,32 @@
         <v>2</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3</v>
@@ -866,7 +860,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -880,7 +874,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
@@ -894,7 +888,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">ВБ СПРОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">путь к печати</t>
   </si>
   <si>
     <t xml:space="preserve">Rotate</t>
@@ -317,7 +320,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,16 +348,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -363,7 +369,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -374,7 +380,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -383,7 +389,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -394,7 +400,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -403,7 +409,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -414,7 +420,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>7</v>
@@ -429,12 +435,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
@@ -449,12 +455,12 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
@@ -469,12 +475,12 @@
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -488,7 +494,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -502,7 +508,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
@@ -517,12 +523,12 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
@@ -536,7 +542,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
@@ -550,7 +556,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -564,7 +570,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -576,12 +582,12 @@
         <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -595,7 +601,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -612,7 +618,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
@@ -627,12 +633,12 @@
         <v>2</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -647,12 +653,12 @@
         <v>2</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -667,12 +673,12 @@
         <v>2</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2</v>
@@ -686,7 +692,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -701,12 +707,12 @@
         <v>2</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
@@ -721,12 +727,12 @@
         <v>2</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -741,12 +747,12 @@
         <v>2</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -761,12 +767,12 @@
         <v>2</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -781,12 +787,12 @@
         <v>2</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -801,12 +807,12 @@
         <v>2</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -821,12 +827,12 @@
         <v>2</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -841,12 +847,12 @@
         <v>2</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3</v>
@@ -860,7 +866,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -874,7 +880,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
@@ -888,7 +894,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -34,15 +34,6 @@
     <t xml:space="preserve">ВБ СПРОС</t>
   </si>
   <si>
-    <t xml:space="preserve">путь к печати</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Раскладка в ширину</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Единорог и балерина</t>
   </si>
   <si>
@@ -64,13 +55,7 @@
     <t xml:space="preserve">Термонаклейка Зайчики</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Девочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки.encode('utf-8').tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Ежик праздник</t>
@@ -320,7 +305,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,28 +333,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -380,16 +356,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -400,16 +376,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -420,10 +396,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7</v>
@@ -434,16 +410,13 @@
       <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -454,16 +427,13 @@
       <c r="G6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>7</v>
@@ -475,15 +445,15 @@
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>6</v>
@@ -494,10 +464,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -508,10 +478,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>6</v>
@@ -523,15 +493,15 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -542,10 +512,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4</v>
@@ -556,10 +526,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>4</v>
@@ -570,10 +540,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -582,15 +552,15 @@
         <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -601,10 +571,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -618,10 +588,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
@@ -633,15 +603,15 @@
         <v>2</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
@@ -653,15 +623,15 @@
         <v>2</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>3</v>
@@ -673,15 +643,15 @@
         <v>2</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -692,10 +662,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
@@ -707,15 +677,15 @@
         <v>2</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
@@ -727,15 +697,15 @@
         <v>2</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
@@ -747,15 +717,15 @@
         <v>2</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
@@ -767,15 +737,15 @@
         <v>2</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -787,15 +757,15 @@
         <v>2</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
@@ -807,15 +777,15 @@
         <v>2</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
@@ -827,15 +797,15 @@
         <v>2</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2</v>
@@ -847,15 +817,15 @@
         <v>2</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>3</v>
@@ -866,10 +836,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
@@ -880,10 +850,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2</v>
@@ -894,10 +864,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>2</v>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -37,21 +37,12 @@
     <t xml:space="preserve">Термонаклейка Единорог и балерина</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единорог и балерина.tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Минни Маус улыбка</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус улыбка.tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термобирки Котята</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\FINAL\Термобирки Котята.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Зайчики</t>
   </si>
   <si>
@@ -61,9 +52,6 @@
     <t xml:space="preserve">Термонаклейка Ежик праздник</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Ежик праздник.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термобирки Щенячий патруль</t>
   </si>
   <si>
@@ -73,9 +61,6 @@
     <t xml:space="preserve">Термонаклейка Фея</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Фея.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термобирки Дисней мальчики</t>
   </si>
   <si>
@@ -88,9 +73,6 @@
     <t xml:space="preserve">Термонаклейка Минни Маус Единорог</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Единорог.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термобирки Транспорт</t>
   </si>
   <si>
@@ -100,70 +82,37 @@
     <t xml:space="preserve">Термонаклейка Минни Маус Набор</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Набор.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Бабочки</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Бабочки.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в ванной.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Крокодил футбол</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил футбол.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Собачки</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Собачки.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Котята. Кот в кружке</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в кружке.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Мишка моряк</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка моряк.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Единороги набор</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единороги набор.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Мишка с сердечками</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка с сердечками.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Динозавры</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Мишка пилот</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка пилот.encode('utf-8').tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Леди Баг</t>
@@ -305,7 +254,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -344,19 +293,12 @@
       <c r="D2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>4</v>
@@ -364,19 +306,11 @@
       <c r="D3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -384,19 +318,10 @@
       <c r="D4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
@@ -404,16 +329,10 @@
       <c r="D5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -421,112 +340,76 @@
       <c r="D6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -534,13 +417,10 @@
       <c r="D13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -548,16 +428,10 @@
       <c r="D14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -565,13 +439,10 @@
       <c r="D15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -579,16 +450,10 @@
       <c r="D16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -596,19 +461,10 @@
       <c r="D17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -616,19 +472,10 @@
       <c r="D18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -636,33 +483,21 @@
       <c r="D19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -670,39 +505,21 @@
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -710,39 +527,21 @@
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -750,19 +549,10 @@
       <c r="D25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -770,19 +560,10 @@
       <c r="D26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -790,39 +571,21 @@
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -830,50 +593,38 @@
       <c r="D29" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -31,100 +32,115 @@
     <t xml:space="preserve">Num_Copies</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Единорог и балерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бабочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Фея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Щенячий патруль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус улыбка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Ежик праздник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Котята</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус Набор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единороги набор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот в кружке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка пилот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Единороги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайчики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус Единорог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Транспорт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Майнкрафт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дисней мальчики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дисней девочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Человек-Паук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка моряк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. День рождения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка с сердечками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Пиксар Дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Динозавры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Крокодил серфинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки белые 30шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Крокодил футбол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот с пиццей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Гарри Поттер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Хаги Ваги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Леди Баг</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВБ СПРОС</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Единорог и балерина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Минни Маус улыбка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Котята</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Зайчики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Девочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Ежик праздник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Щенячий патруль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Единороги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Фея</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Дисней мальчики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Человек-Паук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Майнкрафт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Минни Маус Единорог</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Транспорт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки белые 30шт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Минни Маус Набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Бабочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Крокодил футбол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Собачки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Котята. Кот в кружке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка моряк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Единороги набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка с сердечками</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Динозавры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка пилот</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Леди Баг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Гарри Поттер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Пиксар Дисней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Хаги Ваги</t>
+    <t xml:space="preserve">есть</t>
   </si>
 </sst>
 </file>
@@ -254,7 +270,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -263,13 +279,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -279,483 +295,270 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>1</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>9</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
+      <c r="A36" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
       <c r="C44" s="2"/>
       <c r="J44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,4 +667,435 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <f aca="false">B2*10-C2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <f aca="false">B3*10-C3</f>
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <f aca="false">B4*10-C4</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <f aca="false">B5*10-C5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <f aca="false">B6*10-C6</f>
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <f aca="false">B7*10-C7</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <f aca="false">B8*10-C8</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <f aca="false">B9*10-C9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <f aca="false">B10*10-C10</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <f aca="false">B11*10-C11</f>
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <f aca="false">B12*10-C12</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <f aca="false">B13*10-C13</f>
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <f aca="false">B14*10-C14</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <f aca="false">B15*10-C15</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <f aca="false">B16*10-C16</f>
+        <v>-1</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <f aca="false">B17*10-C17</f>
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <f aca="false">B18*10-C18</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <f aca="false">B19*10-C19</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <f aca="false">B20*10-C20</f>
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">B21*10-C21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <f aca="false">B22*10-C22</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <f aca="false">B23*10-C23</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <f aca="false">B24*10-C24</f>
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <f aca="false">B25*10-C25</f>
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <f aca="false">B26*10-C26</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <f aca="false">B27*10-C27</f>
+        <v>1</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <f aca="false">B28*10-C28</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <f aca="false">B29*10-C29</f>
+        <v>1</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <f aca="false">B30*10-C30</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <f aca="false">B31*10-C31</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <f aca="false">B32*10-C32</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <f aca="false">B33*10-C33</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <f aca="false">B34*10-C34</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <f aca="false">B35*10-C35</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <f aca="false">B36*10-C36</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <f aca="false">SUM(A2:A36)</f>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -270,7 +270,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="M43" activeCellId="0" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -270,7 +270,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M43" activeCellId="0" sqref="M43"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MainTop/WB_demand.xlsx
+++ b/MainTop/WB_demand.xlsx
@@ -95,6 +95,12 @@
     <t xml:space="preserve">Термонаклейка Крокодил серфинг</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Крокодил футбол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот с пиццей</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Щенячий патруль</t>
   </si>
   <si>
@@ -126,12 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термобирки белые 30шт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Крокодил футбол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Котята. Кот с пиццей</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Гарри Поттер</t>
@@ -270,7 +270,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,7 +319,9 @@
       <c r="F2" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -335,7 +337,9 @@
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -354,6 +358,9 @@
       <c r="F4" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -369,6 +376,9 @@
       <c r="E5" s="0" t="n">
         <v>0.8</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -387,6 +397,9 @@
       <c r="F6" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -405,6 +418,9 @@
       <c r="F7" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -423,6 +439,9 @@
       <c r="F8" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -438,6 +457,9 @@
       <c r="E9" s="0" t="n">
         <v>0.8</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -456,6 +478,9 @@
       <c r="F10" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -471,6 +496,9 @@
       <c r="E11" s="0" t="n">
         <v>0.7</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -486,6 +514,9 @@
       <c r="E12" s="0" t="n">
         <v>0.6</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -504,6 +535,9 @@
       <c r="F13" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -519,6 +553,9 @@
       <c r="E14" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -537,6 +574,9 @@
       <c r="F15" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -552,6 +592,9 @@
       <c r="E16" s="0" t="n">
         <v>0.3</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -567,6 +610,9 @@
       <c r="E17" s="0" t="n">
         <v>0.3</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -585,6 +631,9 @@
       <c r="F18" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -603,6 +652,9 @@
       <c r="F19" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
@@ -621,41 +673,50 @@
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">E21*10-F21</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">E22*10-F22</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,17 +724,20 @@
         <v>26</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">E23*10-F23</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,17 +745,20 @@
         <v>27</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">E24*10-F24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,14 +766,20 @@
         <v>28</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">E25*10-F25</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,10 +794,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,14 +808,17 @@
         <v>30</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">E27*10-F27</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,23 +838,26 @@
       <c r="F28" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">E29*10-F29</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,10 +872,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,17 +886,20 @@
         <v>34</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">E31*10-F31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,9 +919,12 @@
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -847,6 +938,9 @@
         <v>0.1</v>
       </c>
       <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,6 +961,9 @@
       <c r="F34" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -885,6 +982,9 @@
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -903,8 +1003,16 @@
       <c r="F36" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="0" t="n">
+        <f aca="false">SUM(G2:G36)</f>
+        <v>178</v>
+      </c>
+    </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
